--- a/train-first.xlsx
+++ b/train-first.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$761</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1234,7 +1237,7 @@
   <dimension ref="A1:I761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A547" sqref="A547:K634"/>
+      <selection activeCell="B3" sqref="B3:B761"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1305,7 +1308,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>72.734</v>
@@ -1334,7 +1337,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>158.666</v>
@@ -1363,7 +1366,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>159.99</v>
@@ -1392,7 +1395,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>158.711</v>
@@ -1421,7 +1424,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>158.615</v>
@@ -1450,7 +1453,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>161.386</v>
@@ -1479,7 +1482,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>162.038</v>
@@ -1508,7 +1511,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>162.644</v>
@@ -1537,7 +1540,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>162.007</v>
@@ -1566,7 +1569,7 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>181.825</v>
@@ -1595,7 +1598,7 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>170.148</v>
@@ -1624,7 +1627,7 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>176.996</v>
@@ -1653,7 +1656,7 @@
         <v>9</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>171.153</v>
@@ -1682,7 +1685,7 @@
         <v>9</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>167.773</v>
@@ -1711,7 +1714,7 @@
         <v>9</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>168.164</v>
@@ -1740,7 +1743,7 @@
         <v>9</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>165.631</v>
@@ -1769,7 +1772,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>172.508</v>
@@ -1798,7 +1801,7 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>171.665</v>
@@ -1914,7 +1917,7 @@
         <v>9</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>174.749</v>
@@ -1972,7 +1975,7 @@
         <v>9</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>103.101</v>
@@ -2001,7 +2004,7 @@
         <v>9</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>149.485</v>
@@ -2030,7 +2033,7 @@
         <v>9</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>173.578</v>
@@ -2146,7 +2149,7 @@
         <v>9</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>198.053</v>
@@ -2175,7 +2178,7 @@
         <v>9</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>189.146</v>
@@ -2204,7 +2207,7 @@
         <v>9</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>199.276</v>
@@ -2262,7 +2265,7 @@
         <v>9</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>213.288</v>
@@ -2697,7 +2700,7 @@
         <v>9</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51">
         <v>162.264</v>
@@ -3161,7 +3164,7 @@
         <v>9</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67">
         <v>123.442</v>
@@ -3306,7 +3309,7 @@
         <v>9</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72">
         <v>176.341</v>
@@ -3364,7 +3367,7 @@
         <v>9</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74">
         <v>182.967</v>
@@ -3712,7 +3715,7 @@
         <v>9</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86">
         <v>196.245</v>
@@ -3741,7 +3744,7 @@
         <v>9</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87">
         <v>207.291</v>
@@ -3770,7 +3773,7 @@
         <v>9</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88">
         <v>203.081</v>
@@ -3828,7 +3831,7 @@
         <v>9</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90">
         <v>174.314</v>
@@ -3886,7 +3889,7 @@
         <v>9</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92">
         <v>196.232</v>
@@ -3915,7 +3918,7 @@
         <v>9</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93">
         <v>218.656</v>
@@ -3944,7 +3947,7 @@
         <v>9</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94">
         <v>356.106</v>
@@ -3973,7 +3976,7 @@
         <v>9</v>
       </c>
       <c r="B95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C95">
         <v>190.887</v>
@@ -4002,7 +4005,7 @@
         <v>9</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96">
         <v>177.142</v>
@@ -4060,7 +4063,7 @@
         <v>10</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C98">
         <v>165.888</v>
@@ -4118,7 +4121,7 @@
         <v>10</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100">
         <v>160.729</v>
@@ -4408,7 +4411,7 @@
         <v>10</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C110">
         <v>171.798</v>
@@ -4495,7 +4498,7 @@
         <v>10</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C113">
         <v>193.074</v>
@@ -4524,7 +4527,7 @@
         <v>10</v>
       </c>
       <c r="B114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C114">
         <v>188.447</v>
@@ -4553,7 +4556,7 @@
         <v>10</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C115">
         <v>176.183</v>
@@ -4582,7 +4585,7 @@
         <v>10</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C116">
         <v>184.508</v>
@@ -4611,7 +4614,7 @@
         <v>10</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C117">
         <v>191.613</v>
@@ -4640,7 +4643,7 @@
         <v>10</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C118">
         <v>192.709</v>
@@ -4669,7 +4672,7 @@
         <v>10</v>
       </c>
       <c r="B119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C119">
         <v>183.164</v>
@@ -4698,7 +4701,7 @@
         <v>10</v>
       </c>
       <c r="B120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C120">
         <v>175.701</v>
@@ -4727,7 +4730,7 @@
         <v>10</v>
       </c>
       <c r="B121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C121">
         <v>180.339</v>
@@ -4756,7 +4759,7 @@
         <v>10</v>
       </c>
       <c r="B122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C122">
         <v>179.41</v>
@@ -4785,7 +4788,7 @@
         <v>10</v>
       </c>
       <c r="B123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C123">
         <v>175.971</v>
@@ -4814,7 +4817,7 @@
         <v>10</v>
       </c>
       <c r="B124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C124">
         <v>178.026</v>
@@ -4843,7 +4846,7 @@
         <v>10</v>
       </c>
       <c r="B125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C125">
         <v>180.642</v>
@@ -4872,7 +4875,7 @@
         <v>10</v>
       </c>
       <c r="B126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C126">
         <v>177.418</v>
@@ -4901,7 +4904,7 @@
         <v>10</v>
       </c>
       <c r="B127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C127">
         <v>181.757</v>
@@ -4930,7 +4933,7 @@
         <v>10</v>
       </c>
       <c r="B128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C128">
         <v>184.536</v>
@@ -4959,7 +4962,7 @@
         <v>10</v>
       </c>
       <c r="B129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C129">
         <v>178.836</v>
@@ -4988,7 +4991,7 @@
         <v>10</v>
       </c>
       <c r="B130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C130">
         <v>178.819</v>
@@ -5017,7 +5020,7 @@
         <v>10</v>
       </c>
       <c r="B131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C131">
         <v>186.378</v>
@@ -5046,7 +5049,7 @@
         <v>10</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C132">
         <v>174.544</v>
@@ -5075,7 +5078,7 @@
         <v>10</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C133">
         <v>181.282</v>
@@ -5104,7 +5107,7 @@
         <v>10</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C134">
         <v>193.229</v>
@@ -5133,7 +5136,7 @@
         <v>10</v>
       </c>
       <c r="B135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C135">
         <v>187.172</v>
@@ -5162,7 +5165,7 @@
         <v>10</v>
       </c>
       <c r="B136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C136">
         <v>189.167</v>
@@ -5191,7 +5194,7 @@
         <v>10</v>
       </c>
       <c r="B137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C137">
         <v>185.876</v>
@@ -5220,7 +5223,7 @@
         <v>10</v>
       </c>
       <c r="B138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C138">
         <v>195.759</v>
@@ -5249,7 +5252,7 @@
         <v>10</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C139">
         <v>213.005</v>
@@ -5278,7 +5281,7 @@
         <v>10</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C140">
         <v>207.693</v>
@@ -5307,7 +5310,7 @@
         <v>10</v>
       </c>
       <c r="B141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C141">
         <v>204.293</v>
@@ -5365,7 +5368,7 @@
         <v>10</v>
       </c>
       <c r="B143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C143">
         <v>183.592</v>
@@ -5655,7 +5658,7 @@
         <v>10</v>
       </c>
       <c r="B153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C153">
         <v>194.573</v>
@@ -5684,7 +5687,7 @@
         <v>10</v>
       </c>
       <c r="B154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C154">
         <v>199.152</v>
@@ -5713,7 +5716,7 @@
         <v>10</v>
       </c>
       <c r="B155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C155">
         <v>214.849</v>
@@ -5742,7 +5745,7 @@
         <v>10</v>
       </c>
       <c r="B156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C156">
         <v>207.325</v>
@@ -5771,7 +5774,7 @@
         <v>10</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C157">
         <v>208.796</v>
@@ -5800,7 +5803,7 @@
         <v>10</v>
       </c>
       <c r="B158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C158">
         <v>216.394</v>
@@ -5829,7 +5832,7 @@
         <v>10</v>
       </c>
       <c r="B159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C159">
         <v>193.492</v>
@@ -5916,7 +5919,7 @@
         <v>10</v>
       </c>
       <c r="B162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C162">
         <v>196.745</v>
@@ -5945,7 +5948,7 @@
         <v>10</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C163">
         <v>201.476</v>
@@ -6931,7 +6934,7 @@
         <v>10</v>
       </c>
       <c r="B197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C197">
         <v>187.911</v>
@@ -6960,7 +6963,7 @@
         <v>10</v>
       </c>
       <c r="B198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C198">
         <v>203.248</v>
@@ -6989,7 +6992,7 @@
         <v>10</v>
       </c>
       <c r="B199">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C199">
         <v>206.396</v>
@@ -7685,7 +7688,7 @@
         <v>10</v>
       </c>
       <c r="B223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C223">
         <v>182.158</v>
@@ -7859,7 +7862,7 @@
         <v>10</v>
       </c>
       <c r="B229">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C229">
         <v>203.697</v>
@@ -7888,7 +7891,7 @@
         <v>10</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C230">
         <v>184.242</v>
@@ -7917,7 +7920,7 @@
         <v>10</v>
       </c>
       <c r="B231">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C231">
         <v>202.452</v>
@@ -7946,7 +7949,7 @@
         <v>10</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C232">
         <v>168.856</v>
@@ -7975,7 +7978,7 @@
         <v>10</v>
       </c>
       <c r="B233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C233">
         <v>138.054</v>
@@ -8062,7 +8065,7 @@
         <v>11</v>
       </c>
       <c r="B236">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C236">
         <v>116.948</v>
@@ -8120,7 +8123,7 @@
         <v>11</v>
       </c>
       <c r="B238">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C238">
         <v>160.706</v>
@@ -8555,7 +8558,7 @@
         <v>11</v>
       </c>
       <c r="B253">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C253">
         <v>117.074</v>
@@ -8671,7 +8674,7 @@
         <v>11</v>
       </c>
       <c r="B257">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C257">
         <v>160.396</v>
@@ -8816,7 +8819,7 @@
         <v>11</v>
       </c>
       <c r="B262">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C262">
         <v>199.292</v>
@@ -8845,7 +8848,7 @@
         <v>11</v>
       </c>
       <c r="B263">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C263">
         <v>204.387</v>
@@ -8874,7 +8877,7 @@
         <v>11</v>
       </c>
       <c r="B264">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C264">
         <v>190.506</v>
@@ -8961,7 +8964,7 @@
         <v>11</v>
       </c>
       <c r="B267">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C267">
         <v>188.604</v>
@@ -9019,7 +9022,7 @@
         <v>11</v>
       </c>
       <c r="B269">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C269">
         <v>196.233</v>
@@ -9048,7 +9051,7 @@
         <v>11</v>
       </c>
       <c r="B270">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C270">
         <v>198.917</v>
@@ -9077,7 +9080,7 @@
         <v>11</v>
       </c>
       <c r="B271">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C271">
         <v>187.104</v>
@@ -9106,7 +9109,7 @@
         <v>11</v>
       </c>
       <c r="B272">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C272">
         <v>187.42</v>
@@ -9135,7 +9138,7 @@
         <v>11</v>
       </c>
       <c r="B273">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C273">
         <v>188.588</v>
@@ -9164,7 +9167,7 @@
         <v>11</v>
       </c>
       <c r="B274">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C274">
         <v>198.933</v>
@@ -9193,7 +9196,7 @@
         <v>11</v>
       </c>
       <c r="B275">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C275">
         <v>199.656</v>
@@ -9222,7 +9225,7 @@
         <v>11</v>
       </c>
       <c r="B276">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C276">
         <v>196.461</v>
@@ -9251,7 +9254,7 @@
         <v>11</v>
       </c>
       <c r="B277">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C277">
         <v>194.005</v>
@@ -9280,7 +9283,7 @@
         <v>11</v>
       </c>
       <c r="B278">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C278">
         <v>189.726</v>
@@ -9309,7 +9312,7 @@
         <v>11</v>
       </c>
       <c r="B279">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C279">
         <v>192.788</v>
@@ -9338,7 +9341,7 @@
         <v>11</v>
       </c>
       <c r="B280">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C280">
         <v>197.961</v>
@@ -9367,7 +9370,7 @@
         <v>11</v>
       </c>
       <c r="B281">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C281">
         <v>197.287</v>
@@ -9396,7 +9399,7 @@
         <v>11</v>
       </c>
       <c r="B282">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C282">
         <v>205.067</v>
@@ -9425,7 +9428,7 @@
         <v>11</v>
       </c>
       <c r="B283">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C283">
         <v>209.411</v>
@@ -9454,7 +9457,7 @@
         <v>11</v>
       </c>
       <c r="B284">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C284">
         <v>211.269</v>
@@ -9483,7 +9486,7 @@
         <v>11</v>
       </c>
       <c r="B285">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C285">
         <v>230.068</v>
@@ -9512,7 +9515,7 @@
         <v>11</v>
       </c>
       <c r="B286">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C286">
         <v>216.469</v>
@@ -9541,7 +9544,7 @@
         <v>11</v>
       </c>
       <c r="B287">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C287">
         <v>222.377</v>
@@ -9570,7 +9573,7 @@
         <v>11</v>
       </c>
       <c r="B288">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C288">
         <v>163.135</v>
@@ -9599,7 +9602,7 @@
         <v>11</v>
       </c>
       <c r="B289">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C289">
         <v>165.213</v>
@@ -9628,7 +9631,7 @@
         <v>11</v>
       </c>
       <c r="B290">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C290">
         <v>211.116</v>
@@ -9657,7 +9660,7 @@
         <v>11</v>
       </c>
       <c r="B291">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C291">
         <v>218.077</v>
@@ -9686,7 +9689,7 @@
         <v>11</v>
       </c>
       <c r="B292">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C292">
         <v>215.081</v>
@@ -9715,7 +9718,7 @@
         <v>11</v>
       </c>
       <c r="B293">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C293">
         <v>210.757</v>
@@ -9744,7 +9747,7 @@
         <v>11</v>
       </c>
       <c r="B294">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C294">
         <v>212.837</v>
@@ -9773,7 +9776,7 @@
         <v>11</v>
       </c>
       <c r="B295">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C295">
         <v>219.99</v>
@@ -9802,7 +9805,7 @@
         <v>11</v>
       </c>
       <c r="B296">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C296">
         <v>216.792</v>
@@ -9831,7 +9834,7 @@
         <v>11</v>
       </c>
       <c r="B297">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C297">
         <v>215.166</v>
@@ -9860,7 +9863,7 @@
         <v>11</v>
       </c>
       <c r="B298">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C298">
         <v>207.258</v>
@@ -9889,7 +9892,7 @@
         <v>11</v>
       </c>
       <c r="B299">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C299">
         <v>222.459</v>
@@ -9918,7 +9921,7 @@
         <v>11</v>
       </c>
       <c r="B300">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C300">
         <v>187.233</v>
@@ -9947,7 +9950,7 @@
         <v>11</v>
       </c>
       <c r="B301">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C301">
         <v>183.019</v>
@@ -9976,7 +9979,7 @@
         <v>11</v>
       </c>
       <c r="B302">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C302">
         <v>219.537</v>
@@ -10005,7 +10008,7 @@
         <v>11</v>
       </c>
       <c r="B303">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C303">
         <v>222.648</v>
@@ -10034,7 +10037,7 @@
         <v>11</v>
       </c>
       <c r="B304">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C304">
         <v>207.183</v>
@@ -10063,7 +10066,7 @@
         <v>11</v>
       </c>
       <c r="B305">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C305">
         <v>197.487</v>
@@ -10092,7 +10095,7 @@
         <v>11</v>
       </c>
       <c r="B306">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C306">
         <v>210.274</v>
@@ -10121,7 +10124,7 @@
         <v>11</v>
       </c>
       <c r="B307">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C307">
         <v>200.055</v>
@@ -10150,7 +10153,7 @@
         <v>11</v>
       </c>
       <c r="B308">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C308">
         <v>175.625</v>
@@ -10179,7 +10182,7 @@
         <v>11</v>
       </c>
       <c r="B309">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C309">
         <v>173.385</v>
@@ -10208,7 +10211,7 @@
         <v>11</v>
       </c>
       <c r="B310">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C310">
         <v>173.186</v>
@@ -10266,7 +10269,7 @@
         <v>11</v>
       </c>
       <c r="B312">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C312">
         <v>170.72</v>
@@ -10295,7 +10298,7 @@
         <v>11</v>
       </c>
       <c r="B313">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C313">
         <v>182.357</v>
@@ -10324,7 +10327,7 @@
         <v>11</v>
       </c>
       <c r="B314">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C314">
         <v>185.35</v>
@@ -10353,7 +10356,7 @@
         <v>11</v>
       </c>
       <c r="B315">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C315">
         <v>178.57</v>
@@ -10469,7 +10472,7 @@
         <v>11</v>
       </c>
       <c r="B319">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C319">
         <v>218.361</v>
@@ -10991,7 +10994,7 @@
         <v>11</v>
       </c>
       <c r="B337">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C337">
         <v>199.402</v>
@@ -11687,7 +11690,7 @@
         <v>11</v>
       </c>
       <c r="B361">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C361">
         <v>206.489</v>
@@ -11774,7 +11777,7 @@
         <v>11</v>
       </c>
       <c r="B364">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C364">
         <v>201.109</v>
@@ -12731,7 +12734,7 @@
         <v>11</v>
       </c>
       <c r="B397">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C397">
         <v>259.915</v>
@@ -12760,7 +12763,7 @@
         <v>11</v>
       </c>
       <c r="B398">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C398">
         <v>293.19</v>
@@ -12789,7 +12792,7 @@
         <v>11</v>
       </c>
       <c r="B399">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C399">
         <v>387.609</v>
@@ -12818,7 +12821,7 @@
         <v>11</v>
       </c>
       <c r="B400">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C400">
         <v>436.878</v>
@@ -12847,7 +12850,7 @@
         <v>11</v>
       </c>
       <c r="B401">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C401">
         <v>457.92</v>
@@ -12876,7 +12879,7 @@
         <v>11</v>
       </c>
       <c r="B402">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C402">
         <v>308.532</v>
@@ -12905,7 +12908,7 @@
         <v>11</v>
       </c>
       <c r="B403">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C403">
         <v>244.393</v>
@@ -12934,7 +12937,7 @@
         <v>11</v>
       </c>
       <c r="B404">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C404">
         <v>232.701</v>
@@ -12963,7 +12966,7 @@
         <v>11</v>
       </c>
       <c r="B405">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C405">
         <v>226.247</v>
@@ -12992,7 +12995,7 @@
         <v>11</v>
       </c>
       <c r="B406">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C406">
         <v>221.863</v>
@@ -13021,7 +13024,7 @@
         <v>11</v>
       </c>
       <c r="B407">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C407">
         <v>225.801</v>
@@ -13050,7 +13053,7 @@
         <v>11</v>
       </c>
       <c r="B408">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C408">
         <v>184.389</v>
@@ -13079,7 +13082,7 @@
         <v>11</v>
       </c>
       <c r="B409">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C409">
         <v>172.042</v>
@@ -13108,7 +13111,7 @@
         <v>11</v>
       </c>
       <c r="B410">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C410">
         <v>155.465</v>
@@ -13137,7 +13140,7 @@
         <v>11</v>
       </c>
       <c r="B411">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C411">
         <v>161.828</v>
@@ -13224,7 +13227,7 @@
         <v>11</v>
       </c>
       <c r="B414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C414">
         <v>137.797</v>
@@ -13253,7 +13256,7 @@
         <v>11</v>
       </c>
       <c r="B415">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C415">
         <v>81.539</v>
@@ -13282,7 +13285,7 @@
         <v>12</v>
       </c>
       <c r="B416">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C416">
         <v>183.139</v>
@@ -13311,7 +13314,7 @@
         <v>12</v>
       </c>
       <c r="B417">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C417">
         <v>178.192</v>
@@ -13456,7 +13459,7 @@
         <v>12</v>
       </c>
       <c r="B422">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C422">
         <v>198.02</v>
@@ -13485,7 +13488,7 @@
         <v>12</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C423">
         <v>200.315</v>
@@ -13514,7 +13517,7 @@
         <v>12</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C424">
         <v>203.809</v>
@@ -13543,7 +13546,7 @@
         <v>12</v>
       </c>
       <c r="B425">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C425">
         <v>193.824</v>
@@ -13572,7 +13575,7 @@
         <v>12</v>
       </c>
       <c r="B426">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C426">
         <v>199.771</v>
@@ -13659,7 +13662,7 @@
         <v>12</v>
       </c>
       <c r="B429">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C429">
         <v>193.199</v>
@@ -13978,7 +13981,7 @@
         <v>12</v>
       </c>
       <c r="B440">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C440">
         <v>189.524</v>
@@ -14674,7 +14677,7 @@
         <v>12</v>
       </c>
       <c r="B464">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C464">
         <v>196.759</v>
@@ -14935,7 +14938,7 @@
         <v>13</v>
       </c>
       <c r="B473">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C473">
         <v>173.028</v>
@@ -14993,7 +14996,7 @@
         <v>13</v>
       </c>
       <c r="B475">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C475">
         <v>170.421</v>
@@ -15080,7 +15083,7 @@
         <v>13</v>
       </c>
       <c r="B478">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C478">
         <v>180.659</v>
@@ -15109,7 +15112,7 @@
         <v>13</v>
       </c>
       <c r="B479">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C479">
         <v>199.889</v>
@@ -15138,7 +15141,7 @@
         <v>13</v>
       </c>
       <c r="B480">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C480">
         <v>221.301</v>
@@ -15167,7 +15170,7 @@
         <v>13</v>
       </c>
       <c r="B481">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C481">
         <v>168.284</v>
@@ -15312,7 +15315,7 @@
         <v>14</v>
       </c>
       <c r="B486">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C486">
         <v>161.634</v>
@@ -15341,7 +15344,7 @@
         <v>14</v>
       </c>
       <c r="B487">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C487">
         <v>175.889</v>
@@ -15370,7 +15373,7 @@
         <v>14</v>
       </c>
       <c r="B488">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C488">
         <v>173.022</v>
@@ -15399,7 +15402,7 @@
         <v>14</v>
       </c>
       <c r="B489">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C489">
         <v>196.176</v>
@@ -15457,7 +15460,7 @@
         <v>14</v>
       </c>
       <c r="B491">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C491">
         <v>137.358</v>
@@ -15486,7 +15489,7 @@
         <v>14</v>
       </c>
       <c r="B492">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C492">
         <v>178.712</v>
@@ -15544,7 +15547,7 @@
         <v>15</v>
       </c>
       <c r="B494">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C494">
         <v>121.653</v>
@@ -15573,7 +15576,7 @@
         <v>15</v>
       </c>
       <c r="B495">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C495">
         <v>148.658</v>
@@ -15602,7 +15605,7 @@
         <v>15</v>
       </c>
       <c r="B496">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C496">
         <v>68.575</v>
@@ -15660,7 +15663,7 @@
         <v>15</v>
       </c>
       <c r="B498">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C498">
         <v>203.933</v>
@@ -15863,7 +15866,7 @@
         <v>15</v>
       </c>
       <c r="B505">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C505">
         <v>171.071</v>
@@ -15892,7 +15895,7 @@
         <v>15</v>
       </c>
       <c r="B506">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C506">
         <v>182.316</v>
@@ -16240,7 +16243,7 @@
         <v>16</v>
       </c>
       <c r="B518">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C518">
         <v>179.036</v>
@@ -16269,7 +16272,7 @@
         <v>16</v>
       </c>
       <c r="B519">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C519">
         <v>201.873</v>
@@ -16298,7 +16301,7 @@
         <v>16</v>
       </c>
       <c r="B520">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C520">
         <v>192.358</v>
@@ -16327,7 +16330,7 @@
         <v>16</v>
       </c>
       <c r="B521">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C521">
         <v>192.832</v>
@@ -16356,7 +16359,7 @@
         <v>16</v>
       </c>
       <c r="B522">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C522">
         <v>198.012</v>
@@ -16385,7 +16388,7 @@
         <v>16</v>
       </c>
       <c r="B523">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C523">
         <v>188.383</v>
@@ -16414,7 +16417,7 @@
         <v>16</v>
       </c>
       <c r="B524">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C524">
         <v>194.526</v>
@@ -16443,7 +16446,7 @@
         <v>16</v>
       </c>
       <c r="B525">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C525">
         <v>194.546</v>
@@ -16501,7 +16504,7 @@
         <v>16</v>
       </c>
       <c r="B527">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C527">
         <v>175.776</v>
@@ -16530,7 +16533,7 @@
         <v>16</v>
       </c>
       <c r="B528">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C528">
         <v>175.23</v>
@@ -16559,7 +16562,7 @@
         <v>16</v>
       </c>
       <c r="B529">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C529">
         <v>165.266</v>
@@ -16588,7 +16591,7 @@
         <v>16</v>
       </c>
       <c r="B530">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C530">
         <v>182.675</v>
@@ -16675,7 +16678,7 @@
         <v>17</v>
       </c>
       <c r="B533">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C533">
         <v>108.453</v>
@@ -16704,7 +16707,7 @@
         <v>17</v>
       </c>
       <c r="B534">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C534">
         <v>100.095</v>
@@ -16733,7 +16736,7 @@
         <v>17</v>
       </c>
       <c r="B535">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C535">
         <v>96.446</v>
@@ -16762,7 +16765,7 @@
         <v>17</v>
       </c>
       <c r="B536">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C536">
         <v>96.394</v>
@@ -16791,7 +16794,7 @@
         <v>17</v>
       </c>
       <c r="B537">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C537">
         <v>99.797</v>
@@ -16820,7 +16823,7 @@
         <v>17</v>
       </c>
       <c r="B538">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C538">
         <v>106.947</v>
@@ -16849,7 +16852,7 @@
         <v>18</v>
       </c>
       <c r="B539">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C539">
         <v>103.32</v>
@@ -16878,7 +16881,7 @@
         <v>18</v>
       </c>
       <c r="B540">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C540">
         <v>91.981</v>
@@ -16907,7 +16910,7 @@
         <v>18</v>
       </c>
       <c r="B541">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C541">
         <v>83.162</v>
@@ -16936,7 +16939,7 @@
         <v>18</v>
       </c>
       <c r="B542">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C542">
         <v>79.071</v>
@@ -16965,7 +16968,7 @@
         <v>18</v>
       </c>
       <c r="B543">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C543">
         <v>79.154</v>
@@ -16994,7 +16997,7 @@
         <v>18</v>
       </c>
       <c r="B544">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C544">
         <v>82.979</v>
@@ -17023,7 +17026,7 @@
         <v>18</v>
       </c>
       <c r="B545">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C545">
         <v>90.174</v>
@@ -17052,7 +17055,7 @@
         <v>18</v>
       </c>
       <c r="B546">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C546">
         <v>100.108</v>
@@ -23312,6 +23315,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B1:B761" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
